--- a/PMI-ACP Replay Zoom Links 2025.xlsx
+++ b/PMI-ACP Replay Zoom Links 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLMullin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENCLAIR\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCEDE24-EEA8-45C9-810C-FD208D013494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C6DB6B-AFBF-4EE5-96D0-C9320C40678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE1E9B03-A07C-4A5E-A026-355458CCCC21}"/>
+    <workbookView xWindow="24223" yWindow="977" windowWidth="21994" windowHeight="16740" xr2:uid="{EE1E9B03-A07C-4A5E-A026-355458CCCC21}"/>
   </bookViews>
   <sheets>
     <sheet name="AprMayJun 2025 NA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Recording Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>PMI-ACP ATP Bootcamp: 8 Day Cohort (Session 8)</t>
+  </si>
+  <si>
+    <t>https://skillsoftbootcamp.zoom.us/rec/share/LLWNWQtKvj34GfcpN3UDrrDGCg0sAfVpq3Ng5RshhunkjLFpC-nLyy7tjPaFerG7.URSOiK4p8JvC1AF-</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -151,6 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -492,18 +496,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,17 +524,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7">
+        <v>45768</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -540,7 +548,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -550,7 +558,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -560,7 +568,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -570,7 +578,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -580,7 +588,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -590,7 +598,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -600,6 +608,9 @@
       <c r="D10" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{83B93A76-7131-4599-8BBF-5082BBA244A9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -615,15 +626,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -650,7 +661,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -660,7 +671,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -670,7 +681,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -680,7 +691,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -690,7 +701,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -700,7 +711,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -710,7 +721,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -735,15 +746,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="74.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -770,7 +781,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -780,7 +791,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -790,7 +801,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -800,7 +811,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -810,7 +821,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -820,7 +831,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -830,7 +841,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
